--- a/Thống kê.xlsx
+++ b/Thống kê.xlsx
@@ -30,40 +30,40 @@
     <t>Số lượng sách trong thư viện</t>
   </si>
   <si>
-    <t>60</t>
+    <t>460</t>
   </si>
   <si>
     <t>Số lượng sách đã mượn</t>
   </si>
   <si>
-    <t>20</t>
+    <t>380</t>
   </si>
   <si>
     <t>Số lượng sách chưa mượn</t>
   </si>
   <si>
-    <t>40</t>
+    <t>80</t>
   </si>
   <si>
     <t>Số lượng sách quá 3 ngày chưa trả</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>Số lượng khách trong thư viện</t>
   </si>
   <si>
-    <t>2</t>
+    <t>10</t>
   </si>
   <si>
     <t>Số lượng khách đang mượn</t>
   </si>
   <si>
-    <t>1</t>
+    <t>9</t>
   </si>
   <si>
     <t>Số lượng khách chưa trả sách quá 3 ngày</t>
+  </si>
+  <si>
+    <t>4</t>
   </si>
 </sst>
 </file>
@@ -123,7 +123,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="39.078125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="3.37890625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="4.54296875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="45.0" customHeight="true">
@@ -160,31 +160,31 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
